--- a/Database/updated new db.xlsx
+++ b/Database/updated new db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bath CW\IP20\Git\galarte\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E54F50C-0168-47C2-A931-8FF416DF7372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6175F6-D776-49F8-A897-11CAFCF69A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STYLE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -622,12 +622,15 @@
   <si>
     <t>The movement was pioneered by Pablo Picasso and Georges Braque, joined by Jean Metzinger, Albert Gleizes, Robert Delaunay, Henri Le Fauconnier, and Fernand Léger. One primary influence that led to Cubism was the representation of three-dimensional form in the late works of Paul Cézanne. A retrospective of Cézanne s paintings had been held at the Salon d Automne of 1904, current works were displayed at the 1905 and 1906 Salon d Automne, followed by two commemorative retrospectives after his death in 1907. In Cubist artwork, objects are analyzed, broken up and reassembled in an abstracted form—instead of depicting objects from a single viewpoint, the artist depicts the subject from a multitude of viewpoints to represent the subject in a greater context.</t>
   </si>
+  <si>
+    <t>gallery style</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1230,11 +1233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
@@ -1242,7 +1245,7 @@
     <col min="4" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="50">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1362,11 +1365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
@@ -1376,7 +1379,7 @@
     <col min="6" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="50">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1661,11 +1664,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1675,7 +1678,7 @@
     <col min="6" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>138</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
         <v>55</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2010,23 +2013,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.08984375" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" customWidth="1"/>
-    <col min="6" max="1025" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="36.08984375" customWidth="1"/>
+    <col min="7" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -2040,25 +2044,28 @@
         <v>86</v>
       </c>
       <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" ht="19">
       <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
@@ -2071,26 +2078,29 @@
       <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>51.381163999999998</v>
+      </c>
+      <c r="H2" s="17">
+        <v>-2.358266</v>
+      </c>
+      <c r="I2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>98</v>
       </c>
-      <c r="I2">
-        <v>51.381163999999998</v>
-      </c>
-      <c r="J2" s="17">
-        <v>-2.358266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="73" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:11" ht="58.5">
       <c r="A3" s="15" t="s">
         <v>99</v>
       </c>
@@ -2103,26 +2113,29 @@
       <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>51.383048000000002</v>
+      </c>
+      <c r="H3" s="17">
+        <v>-2.3587129999999998</v>
+      </c>
+      <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>98</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>98</v>
       </c>
-      <c r="I3">
-        <v>51.383048000000002</v>
-      </c>
-      <c r="J3" s="17">
-        <v>-2.3587129999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -2136,16 +2149,19 @@
         <v>102</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>103</v>
       </c>
-      <c r="I4">
+      <c r="G4">
         <v>48.860970999999999</v>
       </c>
-      <c r="J4">
+      <c r="H4">
         <v>2.3375900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2159,25 +2175,28 @@
         <v>94</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>145</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>51.382807</v>
+      </c>
+      <c r="H5">
+        <v>-2.3583590000000001</v>
+      </c>
+      <c r="I5" t="s">
         <v>105</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>106</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>107</v>
       </c>
-      <c r="I5">
-        <v>51.382807</v>
-      </c>
-      <c r="J5">
-        <v>-2.3583590000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2191,25 +2210,28 @@
         <v>94</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>146</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>51.385896000000002</v>
+      </c>
+      <c r="H6">
+        <v>-2.3508330000000002</v>
+      </c>
+      <c r="I6" t="s">
         <v>109</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>98</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>98</v>
       </c>
-      <c r="I6">
-        <v>51.385896000000002</v>
-      </c>
-      <c r="J6">
-        <v>-2.3508330000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2223,25 +2245,28 @@
         <v>94</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>51.380960000000002</v>
+      </c>
+      <c r="H7">
+        <v>-2.3592249999999999</v>
+      </c>
+      <c r="I7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>113</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="I7">
-        <v>51.380960000000002</v>
-      </c>
-      <c r="J7">
-        <v>-2.3592249999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="43.5">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2254,26 +2279,29 @@
       <c r="D8" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8">
+        <v>51.386763999999999</v>
+      </c>
+      <c r="H8">
+        <v>-2.3656950000000001</v>
+      </c>
+      <c r="I8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>117</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>118</v>
       </c>
-      <c r="I8">
-        <v>51.386763999999999</v>
-      </c>
-      <c r="J8">
-        <v>-2.3656950000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="58">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -2286,26 +2314,29 @@
       <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>51.381143000000002</v>
+      </c>
+      <c r="H9" s="17">
+        <v>-2.3637730000000001</v>
+      </c>
+      <c r="I9" t="s">
         <v>121</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>122</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>123</v>
       </c>
-      <c r="I9">
-        <v>51.381143000000002</v>
-      </c>
-      <c r="J9" s="17">
-        <v>-2.3637730000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" ht="130.5">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -2319,25 +2350,28 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10">
+        <v>51.382938000000003</v>
+      </c>
+      <c r="H10">
+        <v>-2.3611</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="I10">
-        <v>51.382938000000003</v>
-      </c>
-      <c r="J10">
-        <v>-2.3611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" ht="101.5">
       <c r="A11" s="18" t="s">
         <v>128</v>
       </c>
@@ -2350,23 +2384,26 @@
       <c r="D11" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>51.383358000000001</v>
+      </c>
+      <c r="H11">
+        <v>-2.360547</v>
+      </c>
+      <c r="I11" t="s">
         <v>130</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>131</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>148</v>
-      </c>
-      <c r="I11">
-        <v>51.383358000000001</v>
-      </c>
-      <c r="J11">
-        <v>-2.360547</v>
       </c>
     </row>
   </sheetData>
